--- a/biology/Médecine/Thomas_Richard_Fraser/Thomas_Richard_Fraser.xlsx
+++ b/biology/Médecine/Thomas_Richard_Fraser/Thomas_Richard_Fraser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Richard Fraser (né le 5 février 1841 et mort le 4 janvier 1920) est un pharmacologiste britannique, élève de Christison.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est surtout connu pour avoir été le premier, en 1862, à étudier l'action pharmacomimétique de l'extrait de la fève de Calabar. Son exposé remporte la médaille d'or de l'Université d'Édimbourg. Un an plus tard, l'ophtalmologiste Argyll Robertson reproduit l'effet constricteur sur la pupille de l'extrait de fève de Calabar et la physostigmine est par la suite utilisée en ophtalmologie.
 Th. Fraser prend la succession de Christison comme professeur de matière médicale et de thérapeutique. 
